--- a/public/data_samples/fake_data.xlsx
+++ b/public/data_samples/fake_data.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="48">
   <si>
     <t xml:space="preserve">DOMAIN</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">INR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTDOMAIN</t>
   </si>
   <si>
     <t xml:space="preserve">widget_Leaderboard</t>
@@ -6455,7 +6458,7 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6489,7 +6492,7 @@
     </row>
     <row r="2" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -6501,7 +6504,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>200.8</v>
@@ -6523,7 +6526,7 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
@@ -6535,7 +6538,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>188.83328</v>
@@ -6557,7 +6560,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
@@ -6569,7 +6572,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>0</v>
@@ -6586,7 +6589,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
@@ -6598,7 +6601,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>100.4</v>
@@ -6615,7 +6618,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
@@ -6627,7 +6630,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>94.41664</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>6</v>
@@ -6656,7 +6659,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>0</v>
@@ -6673,7 +6676,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>7</v>
@@ -6685,7 +6688,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>168.32</v>
@@ -6702,7 +6705,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>8</v>
@@ -6714,7 +6717,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>122</v>
@@ -6731,7 +6734,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>9</v>
@@ -6743,7 +6746,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>0</v>
@@ -6760,7 +6763,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10</v>
@@ -6772,7 +6775,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>75.18</v>
@@ -6789,7 +6792,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>11</v>
@@ -6801,7 +6804,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>122.55</v>
@@ -6818,7 +6821,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>12</v>
@@ -6830,7 +6833,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>0</v>
@@ -6870,12 +6873,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="8"/>
   </cols>
@@ -6894,7 +6897,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -6910,7 +6913,7 @@
     </row>
     <row r="2" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -6922,7 +6925,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>210</v>
@@ -6938,7 +6941,7 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -6950,7 +6953,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>120</v>
@@ -6966,7 +6969,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -6978,7 +6981,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>69</v>
@@ -6989,7 +6992,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
@@ -7001,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>18.45</v>
@@ -7012,7 +7015,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
@@ -7024,7 +7027,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>98.1666666666667</v>
@@ -7035,7 +7038,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>6</v>
@@ -7047,7 +7050,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>-21</v>
@@ -7058,7 +7061,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>7</v>
@@ -7070,7 +7073,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>77.1666666666667</v>
@@ -7081,7 +7084,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>8</v>
@@ -7104,7 +7107,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>9</v>
@@ -7127,7 +7130,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10</v>
@@ -7139,7 +7142,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>98.1666666666667</v>
@@ -7150,7 +7153,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>11</v>
@@ -7162,7 +7165,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>-21</v>
@@ -7173,7 +7176,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>12</v>
@@ -7185,7 +7188,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>77.1666666666667</v>
@@ -7196,7 +7199,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>13</v>
@@ -7219,7 +7222,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>14</v>
@@ -7231,7 +7234,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="10" t="n">
         <v>182.7</v>
@@ -7242,7 +7245,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>15</v>
@@ -7254,7 +7257,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="10" t="n">
         <v>160.8</v>
@@ -7265,7 +7268,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>16</v>
@@ -7277,7 +7280,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="10" t="n">
         <v>60.03</v>
@@ -7288,7 +7291,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>17</v>
@@ -7300,7 +7303,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="10" t="n">
         <v>24.723</v>
@@ -7311,7 +7314,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>18</v>
@@ -7323,7 +7326,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="10" t="n">
         <v>85.405</v>
@@ -7334,7 +7337,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>19</v>
@@ -7346,7 +7349,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="10" t="n">
         <v>-28.14</v>
@@ -7357,7 +7360,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>20</v>
@@ -7369,7 +7372,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>67.135</v>
@@ -7380,7 +7383,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>21</v>
@@ -7403,7 +7406,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>22</v>
@@ -7426,7 +7429,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>23</v>
@@ -7438,7 +7441,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" s="10" t="n">
         <v>85.405</v>
@@ -7449,7 +7452,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>24</v>
@@ -7461,7 +7464,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" s="10" t="n">
         <v>-28.14</v>
@@ -7472,7 +7475,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>25</v>
@@ -7484,7 +7487,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="10" t="n">
         <v>67.135</v>
@@ -7495,7 +7498,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>26</v>
